--- a/Pubmed/Lassa/Reference_Summary_Jan31.xlsx
+++ b/Pubmed/Lassa/Reference_Summary_Jan31.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/LASV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FFCF34-9C87-E948-B5DA-5963C0BC8318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054115F4-6CEC-B544-8A46-585B3C765ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1340" windowWidth="34560" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8420" yWindow="8400" windowWidth="37760" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4708,9 +4708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z116" sqref="Z116"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z85" sqref="Z85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4720,18 +4720,18 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="50.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="15" width="13.83203125" customWidth="1"/>
-    <col min="16" max="16" width="45.5" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" customWidth="1"/>
-    <col min="18" max="18" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="50.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="13.83203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="45.5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="25.83203125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="15.33203125" customWidth="1"/>
     <col min="20" max="20" width="14.5" customWidth="1"/>
     <col min="21" max="21" width="16.6640625" customWidth="1"/>
@@ -6451,7 +6451,7 @@
         <v>215</v>
       </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z24" t="s">
         <v>217</v>
@@ -8427,7 +8427,7 @@
         <v>216</v>
       </c>
       <c r="Y49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z49" t="s">
         <v>217</v>
@@ -8507,7 +8507,7 @@
         <v>216</v>
       </c>
       <c r="Y50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z50" t="s">
         <v>217</v>
@@ -9227,7 +9227,7 @@
         <v>216</v>
       </c>
       <c r="Y60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z60" t="s">
         <v>217</v>
@@ -10288,7 +10288,7 @@
         <v>215</v>
       </c>
       <c r="Y74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z74" t="s">
         <v>217</v>
@@ -10436,7 +10436,7 @@
         <v>215</v>
       </c>
       <c r="Y76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z76" t="s">
         <v>513</v>
@@ -10886,7 +10886,7 @@
         <v>216</v>
       </c>
       <c r="Y82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z82" t="s">
         <v>217</v>
@@ -10966,7 +10966,7 @@
         <v>216</v>
       </c>
       <c r="Y83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z83" t="s">
         <v>217</v>
@@ -11270,7 +11270,7 @@
         <v>215</v>
       </c>
       <c r="Y87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z87" t="s">
         <v>513</v>
@@ -11728,7 +11728,7 @@
         <v>215</v>
       </c>
       <c r="Y93" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z93" t="s">
         <v>513</v>
@@ -12139,7 +12139,7 @@
         <v>215</v>
       </c>
       <c r="Y99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z99" t="s">
         <v>217</v>
@@ -12211,7 +12211,7 @@
         <v>215</v>
       </c>
       <c r="Y100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z100" t="s">
         <v>217</v>
@@ -13312,7 +13312,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z116" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>